--- a/Civilworks cost/RADP Preparations/Hoboganj/Final/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Final/Projecttion_output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Hoboganj\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\RADP Preparations\Hoboganj\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -643,15 +643,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -674,17 +680,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,9 +1028,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1033,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1073,7 +1107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1093,7 +1127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1113,7 +1147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1173,7 +1207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1193,7 +1227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1233,7 +1267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1253,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1293,7 +1327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1324,9 +1358,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1411,7 +1445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1455,7 +1489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1499,7 +1533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1543,7 +1577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1587,7 +1621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1631,7 +1665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1675,7 +1709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1719,7 +1753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1763,7 +1797,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1807,7 +1841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1851,7 +1885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1895,7 +1929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1939,7 +1973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1983,7 +2017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2027,7 +2061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2071,7 +2105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2115,7 +2149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2159,7 +2193,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2203,7 +2237,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2247,7 +2281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2291,7 +2325,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2335,7 +2369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2379,7 +2413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2423,7 +2457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2467,7 +2501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2511,7 +2545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2555,7 +2589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2599,7 +2633,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2643,7 +2677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2687,7 +2721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2731,7 +2765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2775,7 +2809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2819,7 +2853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2863,7 +2897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2907,7 +2941,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2951,7 +2985,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2995,7 +3029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3039,7 +3073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3083,7 +3117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3127,7 +3161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3171,7 +3205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3215,7 +3249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3259,7 +3293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3303,7 +3337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3347,7 +3381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3391,7 +3425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3446,9 +3480,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
@@ -3459,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3473,7 +3507,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3487,7 +3521,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3501,7 +3535,7 @@
         <v>625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3515,7 +3549,7 @@
         <v>714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3529,7 +3563,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3543,7 +3577,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3557,7 +3591,7 @@
         <v>565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3571,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3585,7 +3619,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3613,7 +3647,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3627,7 +3661,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3641,7 +3675,7 @@
         <v>647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3655,7 +3689,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3669,7 +3703,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3683,7 +3717,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3697,7 +3731,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3711,7 +3745,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3725,7 +3759,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3739,7 +3773,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3753,7 +3787,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3767,7 +3801,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3781,7 +3815,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3795,7 +3829,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3809,7 +3843,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3823,7 +3857,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3837,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3851,7 +3885,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3865,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3893,7 +3927,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3907,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3921,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3935,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3949,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3963,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3977,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3991,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4005,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4019,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4033,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4047,7 +4081,7 @@
         <v>938.57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4061,7 +4095,7 @@
         <v>1079.52</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4075,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4089,7 +4123,7 @@
         <v>655.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4103,7 +4137,7 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4117,7 +4151,7 @@
         <v>1094.31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4131,7 +4165,7 @@
         <v>667.67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4145,7 +4179,7 @@
         <v>817.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4159,7 +4193,7 @@
         <v>475.85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4173,7 +4207,7 @@
         <v>712.73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4187,7 +4221,7 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4201,7 +4235,7 @@
         <v>635.34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4215,7 +4249,7 @@
         <v>375.82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4229,7 +4263,7 @@
         <v>567.71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4243,7 +4277,7 @@
         <v>134.16</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4257,7 +4291,7 @@
         <v>913.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4271,7 +4305,7 @@
         <v>926.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4285,7 +4319,7 @@
         <v>511.73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4299,7 +4333,7 @@
         <v>1521.41</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4313,7 +4347,7 @@
         <v>1061.82</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4327,7 +4361,7 @@
         <v>1268.067</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4348,718 +4382,758 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="6">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6">
+        <v>23.815000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>638.85</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>319.42500000000001</v>
+      </c>
+      <c r="K2" s="6">
+        <v>638.85</v>
+      </c>
+      <c r="L2" s="6">
+        <v>319.42500000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>247.53</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>247.53</v>
+      </c>
+      <c r="L3" s="6">
+        <v>247.53</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>210.95</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>21.094999999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>210.95</v>
+      </c>
+      <c r="L4" s="6">
+        <v>189.85499999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>216.75147200000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>151.72603040000001</v>
+      </c>
+      <c r="L5" s="6">
+        <v>151.72603040000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F2">
-        <v>9.42</v>
-      </c>
-      <c r="G2">
-        <v>237.21</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>237.21</v>
-      </c>
-      <c r="K2">
-        <v>237.21</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F6" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>732.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>586.08000000000004</v>
+      </c>
+      <c r="K6" s="6">
+        <v>732.6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>154.0745714</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>115.55592855</v>
+      </c>
+      <c r="L7" s="6">
+        <v>115.55592855</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>507.95</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>396.20100000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <v>507.95</v>
+      </c>
+      <c r="L8" s="6">
+        <v>111.749</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>141.3235316</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>105.9926487</v>
+      </c>
+      <c r="L9" s="6">
+        <v>105.9926487</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>151.0703345</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45.321100350000002</v>
+      </c>
+      <c r="K10" s="6">
+        <v>151.0703345</v>
+      </c>
+      <c r="L10" s="6">
+        <v>105.74923415000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM(L2:L10)</f>
+        <v>1494.1028418000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.81093200000001</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11">
+        <v>14.3810932</v>
+      </c>
+      <c r="K11">
+        <v>100.66765239999999</v>
+      </c>
+      <c r="L11">
+        <v>86.286559199999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>119</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>149.29</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>149.29</v>
-      </c>
-      <c r="K3">
-        <v>149.29</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G4">
-        <v>732.6</v>
-      </c>
-      <c r="H4">
-        <v>0.8</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>586.08000000000004</v>
-      </c>
-      <c r="K4">
-        <v>732.6</v>
-      </c>
-      <c r="L4">
-        <v>146.52000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="G5">
-        <v>99.9</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>99.9</v>
-      </c>
-      <c r="K5">
-        <v>99.9</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E12" t="s">
         <v>116</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>69.47</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>69.47</v>
       </c>
-      <c r="L6">
+      <c r="L12">
         <v>69.47</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>247.53</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>247.53</v>
-      </c>
-      <c r="L7">
-        <v>247.53</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8">
-        <v>5.7</v>
-      </c>
-      <c r="G8">
-        <v>287.52999999999997</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>287.52999999999997</v>
-      </c>
-      <c r="K8">
-        <v>287.52999999999997</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9">
-        <v>16.02</v>
-      </c>
-      <c r="G9">
-        <v>377.59</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>377.59</v>
-      </c>
-      <c r="K9">
-        <v>377.59</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10">
-        <v>9.42</v>
-      </c>
-      <c r="G10">
-        <v>304.02999999999997</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>304.02999999999997</v>
-      </c>
-      <c r="K10">
-        <v>304.02999999999997</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11">
-        <v>1.79</v>
-      </c>
-      <c r="G11">
-        <v>53.047480929999999</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>53.047480929999999</v>
-      </c>
-      <c r="K11">
-        <v>53.047480929999999</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12">
-        <v>2.72</v>
-      </c>
-      <c r="G12">
-        <v>29.974988280000002</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>29.974988280000002</v>
-      </c>
-      <c r="K12">
-        <v>29.974988280000002</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="E13" t="s">
         <v>116</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>244.2</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="H13">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>231.99</v>
+        <v>82.916966456444996</v>
       </c>
       <c r="K13">
-        <v>244.2</v>
+        <v>150.75812082990001</v>
       </c>
       <c r="L13">
-        <v>12.21000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67.841154373454984</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>7.51</v>
       </c>
       <c r="G14">
-        <v>210.95</v>
+        <v>137.49720149999999</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>21.094999999999999</v>
+        <v>72.873516795</v>
       </c>
       <c r="K14">
-        <v>210.95</v>
+        <v>137.49720149999999</v>
       </c>
       <c r="L14">
-        <v>189.85499999999999</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64.623684704999988</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>115</v>
       </c>
       <c r="F15">
-        <v>23.815000000000001</v>
+        <v>4.327</v>
       </c>
       <c r="G15">
-        <v>638.85</v>
+        <v>115.1915241</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>319.42500000000001</v>
+        <v>51.836185845000003</v>
       </c>
       <c r="K15">
-        <v>638.85</v>
+        <v>115.1915241</v>
       </c>
       <c r="L15">
-        <v>319.42500000000001</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63.355338254999999</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E16" t="s">
         <v>115</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G16">
-        <v>507.95</v>
+        <v>145.97701989999999</v>
       </c>
       <c r="H16">
-        <v>0.78</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>396.20100000000002</v>
+        <v>83.206901342999984</v>
       </c>
       <c r="K16">
-        <v>507.95</v>
+        <v>145.97701989999999</v>
       </c>
       <c r="L16">
-        <v>111.749</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62.770118557000004</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
+      <c r="D17" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>141.3235316</v>
+        <v>189.48</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>105.9926487</v>
+        <v>62.528399999999998</v>
       </c>
       <c r="L17">
-        <v>105.9926487</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62.528399999999998</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>116</v>
@@ -5068,30 +5142,30 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>154.0745714</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>317.34400054999998</v>
       </c>
       <c r="K18">
-        <v>115.55592855</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="L18">
-        <v>115.55592855</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56.001882449999982</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -5099,8 +5173,8 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>116</v>
@@ -5109,39 +5183,39 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0703345</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="H19">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>45.321100350000002</v>
+        <v>124.55461744</v>
       </c>
       <c r="K19">
-        <v>151.0703345</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="L19">
-        <v>105.74923415000001</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31.13865435999999</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>116</v>
@@ -5150,39 +5224,39 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>143.81093200000001</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="H20">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="I20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>14.3810932</v>
+        <v>140.405618</v>
       </c>
       <c r="K20">
-        <v>100.66765239999999</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="L20">
-        <v>86.286559199999999</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24.777462000000011</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>116</v>
@@ -5191,39 +5265,39 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>155.69327179999999</v>
+        <v>244.2</v>
       </c>
       <c r="H21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>124.55461744</v>
+        <v>231.99</v>
       </c>
       <c r="K21">
-        <v>155.69327179999999</v>
+        <v>244.2</v>
       </c>
       <c r="L21">
-        <v>31.13865435999999</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.21000000000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>116</v>
@@ -5232,39 +5306,39 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>216.75147200000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K22">
-        <v>151.72603040000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L22">
-        <v>151.72603040000001</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E23" t="s">
         <v>116</v>
@@ -5273,39 +5347,39 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>353.8204149</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>353.8204149</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K23">
-        <v>353.8204149</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>123</v>
       </c>
       <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E24" t="s">
         <v>116</v>
@@ -5314,39 +5388,39 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>415.5317</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>415.5317</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K24">
-        <v>415.5317</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>123</v>
       </c>
       <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>116</v>
@@ -5355,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>373.34588300000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H25">
         <v>0.85</v>
@@ -5364,30 +5438,30 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>317.34400054999998</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K25">
-        <v>373.34588300000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L25">
-        <v>56.001882449999982</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>123</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>116</v>
@@ -5396,39 +5470,39 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.16040000000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>143.16040000000001</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K26">
-        <v>143.16040000000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
       </c>
       <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>116</v>
@@ -5437,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>165.18307999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="H27">
         <v>0.85</v>
@@ -5446,21 +5520,21 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>140.405618</v>
+        <v>31.520790122662511</v>
       </c>
       <c r="K27">
-        <v>165.18307999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="L27">
-        <v>24.777462000000011</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.562492374587503</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -5468,8 +5542,8 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
-        <v>94</v>
+      <c r="D28" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>116</v>
@@ -5495,13 +5569,13 @@
       <c r="L28">
         <v>5.562492374587503</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>123</v>
@@ -5509,8 +5583,8 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
-        <v>95</v>
+      <c r="D29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E29" t="s">
         <v>116</v>
@@ -5536,505 +5610,505 @@
       <c r="L29">
         <v>5.562492374587503</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30">
+        <v>9.42</v>
+      </c>
+      <c r="G30">
+        <v>237.21</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>237.21</v>
+      </c>
+      <c r="K30">
+        <v>237.21</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>149.29</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>149.29</v>
+      </c>
+      <c r="K31">
+        <v>149.29</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="G32">
+        <v>99.9</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>99.9</v>
+      </c>
+      <c r="K32">
+        <v>99.9</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33">
+        <v>5.7</v>
+      </c>
+      <c r="G33">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="K33">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>16.02</v>
+      </c>
+      <c r="G34">
+        <v>377.59</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>377.59</v>
+      </c>
+      <c r="K34">
+        <v>377.59</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>9.42</v>
+      </c>
+      <c r="G35">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="K35">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36">
+        <v>1.79</v>
+      </c>
+      <c r="G36">
+        <v>53.047480929999999</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>53.047480929999999</v>
+      </c>
+      <c r="K36">
+        <v>53.047480929999999</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37">
+        <v>2.72</v>
+      </c>
+      <c r="G37">
+        <v>29.974988280000002</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>29.974988280000002</v>
+      </c>
+      <c r="K37">
+        <v>29.974988280000002</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>353.8204149</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>353.8204149</v>
+      </c>
+      <c r="K38">
+        <v>353.8204149</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="C30">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>415.5317</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>415.5317</v>
+      </c>
+      <c r="K39">
+        <v>415.5317</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>143.16040000000001</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>143.16040000000001</v>
+      </c>
+      <c r="K40">
+        <v>143.16040000000001</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
         <v>116</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>37.083282497250011</v>
       </c>
-      <c r="H30">
-        <v>0.85</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K30">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L30">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H31">
-        <v>0.85</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K31">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L31">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H32">
-        <v>0.85</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K32">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L32">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H33">
-        <v>0.85</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K33">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L33">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H34">
-        <v>0.85</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K34">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L34">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H35">
-        <v>0.85</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>31.520790122662511</v>
-      </c>
-      <c r="K35">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="L35">
-        <v>5.562492374587503</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>37.083282497250011</v>
-      </c>
-      <c r="H36">
+      <c r="H41">
         <v>0.4</v>
       </c>
-      <c r="I36">
+      <c r="I41">
         <v>0.4</v>
       </c>
-      <c r="J36">
+      <c r="J41">
         <v>14.833312998900009</v>
       </c>
-      <c r="K36">
+      <c r="K41">
         <v>14.833312998900009</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37">
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <v>150.75812082990001</v>
-      </c>
-      <c r="H37">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>82.916966456444996</v>
-      </c>
-      <c r="K37">
-        <v>150.75812082990001</v>
-      </c>
-      <c r="L37">
-        <v>67.841154373454984</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38">
-        <v>3.036</v>
-      </c>
-      <c r="G38">
-        <v>45.420945379999999</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>45.420945379999999</v>
-      </c>
-      <c r="K38">
-        <v>45.420945379999999</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39">
-        <v>3.2639999999999998</v>
-      </c>
-      <c r="G39">
-        <v>61.408012210000003</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>61.408012210000003</v>
-      </c>
-      <c r="K39">
-        <v>61.408012210000003</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="G40">
-        <v>67.666316499999994</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>67.666316499999994</v>
-      </c>
-      <c r="K40">
-        <v>67.666316499999994</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="G41">
-        <v>25.706503519999998</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>124</v>
@@ -6042,17 +6116,17 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>108</v>
+      <c r="D42" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E42" t="s">
         <v>115</v>
       </c>
       <c r="F42">
-        <v>3.2850000000000001</v>
+        <v>3.036</v>
       </c>
       <c r="G42">
-        <v>139.5950848</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6061,21 +6135,21 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>139.5950848</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="K42">
-        <v>139.5950848</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>124</v>
@@ -6083,40 +6157,40 @@
       <c r="C43">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
-        <v>109</v>
+      <c r="D43" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>115</v>
       </c>
       <c r="F43">
-        <v>5.2176</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="G43">
-        <v>103.1260091</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
@@ -6124,40 +6198,40 @@
       <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
-        <v>110</v>
+      <c r="D44" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E44" t="s">
         <v>115</v>
       </c>
       <c r="F44">
-        <v>4.327</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="G44">
-        <v>115.1915241</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="H44">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>51.836185845000003</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="K44">
-        <v>115.1915241</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="L44">
-        <v>63.355338254999999</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>124</v>
@@ -6165,40 +6239,40 @@
       <c r="C45">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>111</v>
+      <c r="D45" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>115</v>
       </c>
       <c r="F45">
-        <v>2.4279999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G45">
-        <v>65.549040759999997</v>
+        <v>25.706503519999998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>65.549040759999997</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>65.549040759999997</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>124</v>
@@ -6206,40 +6280,40 @@
       <c r="C46">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
-        <v>112</v>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>115</v>
       </c>
       <c r="F46">
-        <v>4.5</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="G46">
-        <v>145.97701989999999</v>
+        <v>139.5950848</v>
       </c>
       <c r="H46">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>83.206901342999984</v>
+        <v>139.5950848</v>
       </c>
       <c r="K46">
-        <v>145.97701989999999</v>
+        <v>139.5950848</v>
       </c>
       <c r="L46">
-        <v>62.770118557000004</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>124</v>
@@ -6247,80 +6321,84 @@
       <c r="C47">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
-        <v>113</v>
+      <c r="D47" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>115</v>
       </c>
       <c r="F47">
-        <v>7.51</v>
+        <v>5.2176</v>
       </c>
       <c r="G47">
-        <v>137.49720149999999</v>
+        <v>103.1260091</v>
       </c>
       <c r="H47">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>72.873516795</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>137.49720149999999</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>64.623684704999988</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="G48">
-        <v>189.48</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="K48">
-        <v>62.528399999999998</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="L48">
-        <v>62.528399999999998</v>
-      </c>
-      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M48">
+    <sortCondition descending="1" ref="L2:L48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6330,9 +6408,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6349,7 +6427,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6369,7 +6447,7 @@
         <v>-51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6389,7 +6467,7 @@
         <v>-347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6409,7 +6487,7 @@
         <v>-625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6429,7 +6507,7 @@
         <v>-714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6449,7 +6527,7 @@
         <v>-575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6469,7 +6547,7 @@
         <v>-837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6489,7 +6567,7 @@
         <v>-565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6509,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6529,7 +6607,7 @@
         <v>-712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6549,7 +6627,7 @@
         <v>-409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6569,7 +6647,7 @@
         <v>-522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6589,7 +6667,7 @@
         <v>-705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6609,7 +6687,7 @@
         <v>-647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6629,7 +6707,7 @@
         <v>-806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6649,7 +6727,7 @@
         <v>-333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6669,7 +6747,7 @@
         <v>-721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6689,7 +6767,7 @@
         <v>-1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6709,7 +6787,7 @@
         <v>-711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6729,7 +6807,7 @@
         <v>-331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6749,7 +6827,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6769,7 +6847,7 @@
         <v>-268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6789,7 +6867,7 @@
         <v>-281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6809,7 +6887,7 @@
         <v>-720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6829,7 +6907,7 @@
         <v>-890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6849,7 +6927,7 @@
         <v>-749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6869,7 +6947,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6889,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6909,7 +6987,7 @@
         <v>-61.6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6929,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6949,7 +7027,7 @@
         <v>62.528399999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6969,7 +7047,7 @@
         <v>-74.41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6989,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7009,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7029,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7049,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7069,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7089,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7109,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7129,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7149,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7169,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7189,7 +7267,7 @@
         <v>597.42999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7209,7 +7287,7 @@
         <v>427.80246921000003</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7229,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7249,7 +7327,7 @@
         <v>490.8599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7269,7 +7347,7 @@
         <v>826.72628125000006</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7289,7 +7367,7 @@
         <v>465.16875680679942</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7309,7 +7387,7 @@
         <v>110.63514515</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7329,7 +7407,7 @@
         <v>-817.97</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7349,7 +7427,7 @@
         <v>-475.85</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7369,7 +7447,7 @@
         <v>-712.73</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7389,7 +7467,7 @@
         <v>-844.17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7409,7 +7487,7 @@
         <v>-635.34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7429,7 +7507,7 @@
         <v>-375.82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7449,7 +7527,7 @@
         <v>-567.71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7469,7 +7547,7 @@
         <v>-134.16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7489,7 +7567,7 @@
         <v>-913.55</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7509,7 +7587,7 @@
         <v>-926.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7529,7 +7607,7 @@
         <v>-511.73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7549,7 +7627,7 @@
         <v>-1521.41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7569,7 +7647,7 @@
         <v>-1061.82</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7589,7 +7667,7 @@
         <v>-1268.067</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7622,12 +7700,12 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7728,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7676,7 +7754,7 @@
         <v>128.75812082990001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7702,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7728,7 +7806,7 @@
         <v>-5299.9737187500004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7754,7 +7832,7 @@
         <v>311.49957297690008</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7780,7 +7858,7 @@
         <v>1799.901063</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7806,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7832,7 +7910,7 @@
         <v>-1768.2348548499999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7858,7 +7936,7 @@
         <v>864.43246921000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7884,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7910,7 +7988,7 @@
         <v>1355.65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7936,7 +8014,7 @@
         <v>-4686.24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7962,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7988,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8014,7 +8092,7 @@
         <v>62.528399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8049,18 +8127,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8077,7 +8155,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8097,7 +8175,7 @@
         <v>128.76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8117,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8137,7 +8215,7 @@
         <v>1837.29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8157,7 +8235,7 @@
         <v>110.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8177,7 +8255,7 @@
         <v>148.55000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8197,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8217,7 +8295,7 @@
         <v>202.83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8237,7 +8315,7 @@
         <v>490.86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8257,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8277,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8297,7 +8375,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8317,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <f>SUM(C1:C13)</f>
         <v>5585.36</v>
